--- a/biology/Botanique/Stress_thermique_chez_les_végétaux/Stress_thermique_chez_les_végétaux.xlsx
+++ b/biology/Botanique/Stress_thermique_chez_les_végétaux/Stress_thermique_chez_les_végétaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stress_thermique_chez_les_v%C3%A9g%C3%A9taux</t>
+          <t>Stress_thermique_chez_les_végétaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stress thermique chez les végétaux est l'ensemble des modifications de la physiologie des végétaux lorsque la température s'élève ou s'abaisse au-delà des conditions habituelles. Il diffère selon les espèces et la forme et ampleur du changement de température.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stress_thermique_chez_les_v%C3%A9g%C3%A9taux</t>
+          <t>Stress_thermique_chez_les_végétaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Réactions communes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La transpiration de la plante augmente avec la température. Au-delà de 30 °C, les stomates se ferment, la photosynthèse baisse. Dès 45 °C, elle est totalement inhibée. Gounaris[Qui ?] a montré en 1983 qu'au-dessus de 50 °C, il y a une perturbation dans les interactions protéines-lipides des membranes. Le stress thermique abîme d'abord les membranes, puis les tissus, et induit une contraction/expansion des cellules.  
 En réponse à une haute température, certaines plantes, comme des pois, augmentent la concentration en lipides de la membrane, et peuvent alors continuer à faire la photosynthèse.
